--- a/conf/resources/film-tax-relief-template.xlsx
+++ b/conf/resources/film-tax-relief-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmrc.sharepoint.com/teams/GRP042118873/Creative Industries/Creatives Reform 2022/IT Project/Stencils/Existing reliefs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="11_D699482795CAC906DE2FD09205C2C119E5BC1124" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45F6AFFE-DBB0-4721-A38A-20A19EC5C3CF}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="11_D699482795CAC906DE2FD09205C2C119E5BC1124" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE67F685-5C92-4B6E-807F-B26351BFFF6B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,7 +548,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1155,9 +1155,6 @@
   </cellStyles>
   <dxfs count="41">
     <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1303,18 +1300,6 @@
       <protection locked="1" hidden="1"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -1337,6 +1322,21 @@
         </bottom>
       </border>
       <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1535,7 +1535,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Television Tax Relief Stencil"/>
@@ -1580,18 +1580,18 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Expenditure" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total expenditure" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Non Core Expenditure" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total Core Expenditure" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Total UK Core Expenditure" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Total Non UK Core Expenditure" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Expenditure" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total expenditure" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Non Core Expenditure" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total Core Expenditure" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Total UK Core Expenditure" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Total Non UK Core Expenditure" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>SUM(Table2[Total Non UK Core Expenditure])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Apportionment basis " totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Apportionment basis " totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>SUM(Table2[[Apportionment basis ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Comments" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Comments" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1866,20 +1866,20 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" customWidth="1"/>
     <col min="2" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="21">
+    <row r="1" spans="1:11" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
       <c r="C1" s="13" t="s">
@@ -1894,7 +1894,7 @@
       <c r="J1" s="15"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:11" s="17" customFormat="1">
+    <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19" t="s">
         <v>1</v>
@@ -1911,7 +1911,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11" s="17" customFormat="1">
+    <row r="3" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>3</v>
@@ -1928,7 +1928,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:11" s="17" customFormat="1" ht="15.6">
+    <row r="4" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -1941,7 +1941,7 @@
       <c r="J4" s="21"/>
       <c r="K4" s="23"/>
     </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" ht="15.6">
+    <row r="5" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>5</v>
       </c>
@@ -1956,7 +1956,7 @@
       <c r="J5" s="21"/>
       <c r="K5" s="23"/>
     </row>
-    <row r="6" spans="1:11" s="17" customFormat="1" ht="15.6">
+    <row r="6" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>6</v>
       </c>
@@ -1971,7 +1971,7 @@
       <c r="J6" s="21"/>
       <c r="K6" s="23"/>
     </row>
-    <row r="7" spans="1:11" s="17" customFormat="1" ht="15.6">
+    <row r="7" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="J7" s="21"/>
       <c r="K7" s="23"/>
     </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" ht="15.6">
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>8</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="J8" s="21"/>
       <c r="K8" s="23"/>
     </row>
-    <row r="9" spans="1:11" s="17" customFormat="1" ht="15.6">
+    <row r="9" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -2014,7 +2014,7 @@
       <c r="J9" s="21"/>
       <c r="K9" s="23"/>
     </row>
-    <row r="10" spans="1:11" s="17" customFormat="1" ht="15.6">
+    <row r="10" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="61" t="s">
         <v>9</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="J10" s="21"/>
       <c r="K10" s="23"/>
     </row>
-    <row r="11" spans="1:11" s="17" customFormat="1" ht="15.6">
+    <row r="11" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="J11" s="21"/>
       <c r="K11" s="23"/>
     </row>
-    <row r="12" spans="1:11" s="17" customFormat="1" ht="15.6">
+    <row r="12" spans="1:11" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>11</v>
       </c>
@@ -2059,7 +2059,7 @@
       <c r="J12" s="27"/>
       <c r="K12" s="29"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2086,20 +2086,20 @@
   <dimension ref="A2:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="41.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1">
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64"/>
       <c r="B2" s="65"/>
       <c r="C2" s="4" t="s">
@@ -2113,7 +2113,7 @@
       <c r="I2" s="79"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1">
+    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="64"/>
       <c r="B3" s="65"/>
       <c r="C3" s="4" t="s">
@@ -2127,7 +2127,7 @@
       <c r="I3" s="79"/>
       <c r="J3" s="66"/>
     </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1">
+    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="64"/>
       <c r="B4" s="65"/>
       <c r="C4" s="4" t="s">
@@ -2141,7 +2141,7 @@
       <c r="I4" s="79"/>
       <c r="J4" s="66"/>
     </row>
-    <row r="5" spans="1:10" ht="4.5" customHeight="1">
+    <row r="5" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64"/>
       <c r="B5" s="65"/>
       <c r="C5" s="64"/>
@@ -2153,7 +2153,7 @@
       <c r="I5" s="64"/>
       <c r="J5" s="66"/>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64"/>
       <c r="B6" s="65"/>
       <c r="C6" s="64" t="s">
@@ -2177,7 +2177,7 @@
       <c r="I6" s="64"/>
       <c r="J6" s="66"/>
     </row>
-    <row r="7" spans="1:10" ht="4.5" customHeight="1">
+    <row r="7" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="64"/>
       <c r="B7" s="65"/>
       <c r="C7" s="64"/>
@@ -2189,7 +2189,7 @@
       <c r="I7" s="64"/>
       <c r="J7" s="66"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="64"/>
       <c r="B8" s="67" t="s">
         <v>23</v>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="J8" s="66"/>
     </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1">
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="80" t="s">
         <v>27</v>
       </c>
@@ -2227,7 +2227,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="66"/>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="80"/>
       <c r="B10" s="10" t="s">
         <v>30</v>
@@ -2243,7 +2243,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="66"/>
     </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1">
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="80"/>
       <c r="B11" s="10" t="s">
         <v>32</v>
@@ -2259,7 +2259,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="66"/>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="80"/>
       <c r="B12" s="10" t="s">
         <v>34</v>
@@ -2287,7 +2287,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="66"/>
     </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1">
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="80"/>
       <c r="B13" s="10" t="s">
         <v>36</v>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="J13" s="66"/>
     </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1">
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="80"/>
       <c r="B14" s="10" t="s">
         <v>39</v>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="J14" s="66"/>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="80"/>
       <c r="B15" s="10" t="s">
         <v>42</v>
@@ -2381,7 +2381,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="66"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1">
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="80"/>
       <c r="B16" s="10" t="s">
         <v>44</v>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="J16" s="66"/>
     </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="80"/>
       <c r="B17" s="10" t="s">
         <v>47</v>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="J17" s="66"/>
     </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1">
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="80"/>
       <c r="B18" s="10" t="s">
         <v>50</v>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="J18" s="66"/>
     </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1">
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="81" t="s">
         <v>53</v>
       </c>
@@ -2483,7 +2483,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="66"/>
     </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1">
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="82"/>
       <c r="B20" s="10" t="s">
         <v>56</v>
@@ -2499,7 +2499,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="66"/>
     </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1">
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="82"/>
       <c r="B21" s="10" t="s">
         <v>58</v>
@@ -2515,7 +2515,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="66"/>
     </row>
-    <row r="22" spans="1:10" ht="12.75" customHeight="1">
+    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="82"/>
       <c r="B22" s="10" t="s">
         <v>60</v>
@@ -2531,7 +2531,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="66"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" customHeight="1">
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="82"/>
       <c r="B23" s="10" t="s">
         <v>62</v>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="J23" s="66"/>
     </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1">
+    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="82"/>
       <c r="B24" s="10" t="s">
         <v>65</v>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="J24" s="66"/>
     </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1">
+    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="82"/>
       <c r="B25" s="10" t="s">
         <v>68</v>
@@ -2610,19 +2610,19 @@
         <v>0</v>
       </c>
       <c r="E25" s="35">
-        <f>MIN(E19,E22)</f>
+        <f t="shared" ref="E25:H25" si="2">MIN(E21,E24)</f>
         <v>0</v>
       </c>
       <c r="F25" s="35">
-        <f>MIN(F19,F22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="35">
-        <f>MIN(G19,G22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="35">
-        <f>MIN(H19,H22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="58" t="s">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="J25" s="66"/>
     </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1">
+    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="82"/>
       <c r="B26" s="10" t="s">
         <v>71</v>
@@ -2644,21 +2644,21 @@
         <v>0</v>
       </c>
       <c r="F26" s="35">
-        <f t="shared" ref="F26:H26" si="2">E25</f>
+        <f t="shared" ref="F26:H26" si="3">E25</f>
         <v>0</v>
       </c>
       <c r="G26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H26" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="58"/>
       <c r="J26" s="66"/>
     </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1">
+    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="82"/>
       <c r="B27" s="10" t="s">
         <v>73</v>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="J27" s="66"/>
     </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1">
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="83"/>
       <c r="B28" s="10" t="s">
         <v>76</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="J28" s="66"/>
     </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1">
+    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="84" t="s">
         <v>79</v>
       </c>
@@ -2739,25 +2739,25 @@
         <v>0</v>
       </c>
       <c r="E29" s="33">
-        <f t="shared" ref="E29:H29" si="3">E23</f>
+        <f t="shared" ref="E29:H29" si="4">E23</f>
         <v>0</v>
       </c>
       <c r="F29" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G29" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H29" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="66"/>
     </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1">
+    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="85"/>
       <c r="B30" s="63" t="s">
         <v>81</v>
@@ -2785,7 +2785,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="66"/>
     </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1">
+    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="85"/>
       <c r="B31" s="63" t="s">
         <v>83</v>
@@ -2802,15 +2802,15 @@
         <v>0</v>
       </c>
       <c r="F31" s="33">
-        <f t="shared" ref="F31:H31" si="4">F29-F30</f>
+        <f t="shared" ref="F31:H31" si="5">F29-F30</f>
         <v>0</v>
       </c>
       <c r="G31" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H31" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I31" s="3" t="s">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="J31" s="66"/>
     </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1">
+    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="85"/>
       <c r="B32" s="63" t="s">
         <v>86</v>
@@ -2834,7 +2834,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="66"/>
     </row>
-    <row r="33" spans="1:10" ht="12.75" customHeight="1">
+    <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="85"/>
       <c r="B33" s="63" t="s">
         <v>88</v>
@@ -2862,7 +2862,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="66"/>
     </row>
-    <row r="34" spans="1:10" ht="12.75" customHeight="1">
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="85"/>
       <c r="B34" s="63" t="s">
         <v>90</v>
@@ -2875,19 +2875,19 @@
         <v>0</v>
       </c>
       <c r="E34" s="33">
-        <f t="shared" ref="E34:H34" si="5">SUM(E32-E33)</f>
+        <f t="shared" ref="E34:H34" si="6">SUM(E32-E33)</f>
         <v>0</v>
       </c>
       <c r="F34" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G34" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H34" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I34" s="3" t="s">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="J34" s="66"/>
     </row>
-    <row r="35" spans="1:10" ht="12.75" customHeight="1">
+    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="85"/>
       <c r="B35" s="63" t="s">
         <v>93</v>
@@ -2908,19 +2908,19 @@
         <v>0</v>
       </c>
       <c r="E35" s="33">
-        <f t="shared" ref="E35:H35" si="6">E31+E34</f>
+        <f t="shared" ref="E35:H35" si="7">E31+E34</f>
         <v>0</v>
       </c>
       <c r="F35" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G35" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H35" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="J35" s="66"/>
     </row>
-    <row r="36" spans="1:10" ht="12.75" customHeight="1">
+    <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="85"/>
       <c r="B36" s="63" t="s">
         <v>96</v>
@@ -2941,25 +2941,25 @@
         <v>0</v>
       </c>
       <c r="E36" s="33">
-        <f t="shared" ref="E36:H36" si="7">E21</f>
+        <f t="shared" ref="E36:H36" si="8">E21</f>
         <v>0</v>
       </c>
       <c r="F36" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G36" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H36" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="66"/>
     </row>
-    <row r="37" spans="1:10" ht="12.75" customHeight="1">
+    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="85"/>
       <c r="B37" s="63" t="s">
         <v>97</v>
@@ -2987,7 +2987,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="66"/>
     </row>
-    <row r="38" spans="1:10" ht="12.75" customHeight="1">
+    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="86"/>
       <c r="B38" s="63" t="s">
         <v>99</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="E38" s="33">
-        <f t="shared" ref="E38:H38" si="8">E36-E37</f>
+        <f t="shared" ref="E38:H38" si="9">E36-E37</f>
         <v>0</v>
       </c>
       <c r="F38" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G38" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H38" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I38" s="3" t="s">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="J38" s="66"/>
     </row>
-    <row r="39" spans="1:10" ht="12.75" customHeight="1">
+    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="76" t="s">
         <v>102</v>
       </c>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="J39" s="66"/>
     </row>
-    <row r="40" spans="1:10" ht="12.75" customHeight="1">
+    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="77"/>
       <c r="B40" s="63" t="s">
         <v>106</v>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="J40" s="66"/>
     </row>
-    <row r="41" spans="1:10" ht="12.75" customHeight="1">
+    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="77"/>
       <c r="B41" s="63" t="s">
         <v>109</v>
@@ -3091,17 +3091,17 @@
         <v>0</v>
       </c>
       <c r="G41" s="35">
-        <f t="shared" ref="G41:H41" si="9">F41+F43</f>
+        <f t="shared" ref="G41:H41" si="10">F41+F43</f>
         <v>0</v>
       </c>
       <c r="H41" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I41" s="58"/>
       <c r="J41" s="66"/>
     </row>
-    <row r="42" spans="1:10" ht="12.75" customHeight="1">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="77"/>
       <c r="B42" s="63" t="s">
         <v>111</v>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="J42" s="66"/>
     </row>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1">
+    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="77"/>
       <c r="B43" s="63" t="s">
         <v>114</v>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="J43" s="66"/>
     </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1">
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="78"/>
       <c r="B44" s="63" t="s">
         <v>117</v>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="J44" s="66"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="71"/>
       <c r="B45" s="72"/>
       <c r="C45" s="71"/>
@@ -3196,7 +3196,7 @@
       <c r="H45" s="71"/>
       <c r="I45" s="71"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="71"/>
       <c r="B46" s="73" t="s">
         <v>120</v>
@@ -3211,7 +3211,7 @@
       <c r="H46" s="71"/>
       <c r="I46" s="71"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="71"/>
       <c r="B47" s="73"/>
       <c r="C47" s="71"/>
@@ -3222,7 +3222,7 @@
       <c r="H47" s="71"/>
       <c r="I47" s="71"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="71"/>
       <c r="B48" s="73"/>
       <c r="C48" s="71"/>
@@ -3234,7 +3234,7 @@
       <c r="I48" s="71"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jdIDAlfx5UCXPc0qHPqpOUCNnIktjluO7yUWP7/56wi0L94eJiXx6lbqMpG8Vlax63rLBpZAY72EGIktIi4o0w==" saltValue="56zoDF/kMvCZSTtAtv7jxw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uxpDyo2k0Q0ULwV2o/djxcC1khZpC44QKI9EAlKetj7fh4E/+1H9Tzbd+gfNpaOzvp1w63cGtYjozobTquF03Q==" saltValue="7ieRyr8TBL+EiX+cU4bzOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="D2:I2"/>
@@ -3353,20 +3353,20 @@
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
     <col min="9" max="9" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="5">
         <f>SUM(D45,C45)</f>
         <v>0</v>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="17" customFormat="1" ht="21" customHeight="1">
+    <row r="2" spans="1:9" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="57" t="s">
@@ -3389,7 +3389,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" s="37" customFormat="1" ht="14.25" customHeight="1">
+    <row r="3" spans="1:9" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
       <c r="B3" s="36" t="s">
         <v>1</v>
@@ -3404,7 +3404,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
     </row>
-    <row r="4" spans="1:9" s="37" customFormat="1" ht="14.25" customHeight="1">
+    <row r="4" spans="1:9" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36"/>
       <c r="B4" s="36" t="s">
         <v>3</v>
@@ -3419,7 +3419,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:9" ht="21" customHeight="1">
+    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>123</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" s="37" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:9" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>25</v>
       </c>
@@ -3446,7 +3446,7 @@
       <c r="H6" s="39"/>
       <c r="I6" s="40"/>
     </row>
-    <row r="7" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:9" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="54" t="s">
         <v>126</v>
       </c>
@@ -3472,248 +3472,248 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="37" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:9" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="42"/>
       <c r="H8" s="39"/>
     </row>
-    <row r="9" spans="1:9" s="37" customFormat="1">
+    <row r="9" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="42"/>
       <c r="H9" s="39"/>
     </row>
-    <row r="10" spans="1:9" s="37" customFormat="1">
+    <row r="10" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="42"/>
       <c r="H10" s="39"/>
     </row>
-    <row r="11" spans="1:9" s="37" customFormat="1">
+    <row r="11" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="42"/>
       <c r="H11" s="39"/>
     </row>
-    <row r="12" spans="1:9" s="37" customFormat="1" ht="28.9">
+    <row r="12" spans="1:9" s="37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>137</v>
       </c>
       <c r="B12" s="42"/>
       <c r="H12" s="39"/>
     </row>
-    <row r="13" spans="1:9" s="37" customFormat="1">
+    <row r="13" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>135</v>
       </c>
       <c r="B13" s="42"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:9" s="37" customFormat="1">
+    <row r="14" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
         <v>138</v>
       </c>
       <c r="B14" s="42"/>
       <c r="H14" s="39"/>
     </row>
-    <row r="15" spans="1:9" s="37" customFormat="1">
+    <row r="15" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>139</v>
       </c>
       <c r="B15" s="42"/>
       <c r="H15" s="39"/>
     </row>
-    <row r="16" spans="1:9" s="37" customFormat="1">
+    <row r="16" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>140</v>
       </c>
       <c r="B16" s="42"/>
       <c r="H16" s="39"/>
     </row>
-    <row r="17" spans="1:8" s="37" customFormat="1">
+    <row r="17" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>141</v>
       </c>
       <c r="B17" s="42"/>
       <c r="H17" s="39"/>
     </row>
-    <row r="18" spans="1:8" s="37" customFormat="1">
+    <row r="18" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>142</v>
       </c>
       <c r="B18" s="42"/>
       <c r="H18" s="39"/>
     </row>
-    <row r="19" spans="1:8" s="37" customFormat="1">
+    <row r="19" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>143</v>
       </c>
       <c r="B19" s="42"/>
       <c r="H19" s="39"/>
     </row>
-    <row r="20" spans="1:8" s="37" customFormat="1">
+    <row r="20" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>144</v>
       </c>
       <c r="B20" s="42"/>
       <c r="H20" s="39"/>
     </row>
-    <row r="21" spans="1:8" s="37" customFormat="1">
+    <row r="21" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="42"/>
       <c r="H21" s="39"/>
     </row>
-    <row r="22" spans="1:8" s="37" customFormat="1">
+    <row r="22" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>145</v>
       </c>
       <c r="B22" s="42"/>
       <c r="H22" s="39"/>
     </row>
-    <row r="23" spans="1:8" s="37" customFormat="1">
+    <row r="23" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>146</v>
       </c>
       <c r="B23" s="42"/>
       <c r="H23" s="39"/>
     </row>
-    <row r="24" spans="1:8" s="37" customFormat="1">
+    <row r="24" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>147</v>
       </c>
       <c r="B24" s="42"/>
       <c r="H24" s="39"/>
     </row>
-    <row r="25" spans="1:8" s="37" customFormat="1">
+    <row r="25" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>148</v>
       </c>
       <c r="B25" s="42"/>
       <c r="H25" s="39"/>
     </row>
-    <row r="26" spans="1:8" s="37" customFormat="1">
+    <row r="26" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
       <c r="B26" s="42"/>
       <c r="H26" s="39"/>
     </row>
-    <row r="27" spans="1:8" s="37" customFormat="1">
+    <row r="27" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
       <c r="B27" s="42"/>
       <c r="H27" s="39"/>
     </row>
-    <row r="28" spans="1:8" s="37" customFormat="1">
+    <row r="28" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
       <c r="B28" s="42"/>
       <c r="H28" s="39"/>
     </row>
-    <row r="29" spans="1:8" s="37" customFormat="1" ht="28.9">
+    <row r="29" spans="1:8" s="37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
         <v>149</v>
       </c>
       <c r="B29" s="42"/>
       <c r="H29" s="39"/>
     </row>
-    <row r="30" spans="1:8" s="37" customFormat="1">
+    <row r="30" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
         <v>135</v>
       </c>
       <c r="B30" s="42"/>
       <c r="H30" s="39"/>
     </row>
-    <row r="31" spans="1:8" s="37" customFormat="1">
+    <row r="31" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
         <v>150</v>
       </c>
       <c r="B31" s="42"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:8" s="37" customFormat="1">
+    <row r="32" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>151</v>
       </c>
       <c r="B32" s="42"/>
       <c r="H32" s="39"/>
     </row>
-    <row r="33" spans="1:8" s="37" customFormat="1">
+    <row r="33" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B33" s="42"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:8" s="37" customFormat="1">
+    <row r="34" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
         <v>153</v>
       </c>
       <c r="B34" s="42"/>
       <c r="H34" s="39"/>
     </row>
-    <row r="35" spans="1:8" s="37" customFormat="1">
+    <row r="35" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
       <c r="B35" s="42"/>
       <c r="H35" s="39"/>
     </row>
-    <row r="36" spans="1:8" s="37" customFormat="1">
+    <row r="36" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
       <c r="B36" s="42"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:8" s="37" customFormat="1">
+    <row r="37" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
       <c r="B37" s="42"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:8" s="37" customFormat="1" ht="28.9">
+    <row r="38" spans="1:8" s="37" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="46" t="s">
         <v>154</v>
       </c>
       <c r="B38" s="42"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:8" s="37" customFormat="1">
+    <row r="39" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="44" t="s">
         <v>155</v>
       </c>
       <c r="B39" s="42"/>
       <c r="H39" s="39"/>
     </row>
-    <row r="40" spans="1:8" s="37" customFormat="1">
+    <row r="40" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="44" t="s">
         <v>156</v>
       </c>
       <c r="B40" s="42"/>
       <c r="H40" s="39"/>
     </row>
-    <row r="41" spans="1:8" s="37" customFormat="1">
+    <row r="41" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="44" t="s">
         <v>157</v>
       </c>
       <c r="B41" s="42"/>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="1:8" s="37" customFormat="1">
+    <row r="42" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="43" t="s">
         <v>158</v>
       </c>
       <c r="B42" s="42"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:8" s="37" customFormat="1">
+    <row r="43" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
         <v>159</v>
       </c>
       <c r="B43" s="42"/>
       <c r="H43" s="39"/>
     </row>
-    <row r="44" spans="1:8" s="37" customFormat="1">
+    <row r="44" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
       <c r="B44" s="42"/>
       <c r="H44" s="39"/>
     </row>
-    <row r="45" spans="1:8" s="17" customFormat="1" ht="15" thickBot="1">
+    <row r="45" spans="1:8" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="51" t="s">
         <v>160</v>
       </c>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="H45" s="53"/>
     </row>
-    <row r="46" spans="1:8" s="37" customFormat="1">
+    <row r="46" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="43" t="s">
         <v>161</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="E46" s="48"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:8" s="17" customFormat="1">
+    <row r="47" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="49" t="s">
         <v>160</v>
       </c>
@@ -3781,22 +3781,22 @@
       </c>
       <c r="H47" s="50"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
     </row>
   </sheetData>
@@ -3828,36 +3828,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7058508a-d375-4a1e-a567-7dd1bee321db">
-      <UserInfo>
-        <DisplayName>Blagan, Kelly (WMBC Assets)</DisplayName>
-        <AccountId>218</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mayat, Muhammad (FIS Individuals and Businesses)</DisplayName>
-        <AccountId>4372</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100350E8E2BB23E2A4AA4EA2615525F2B5A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="196d710fa02d7b8454006001c59ff208">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e4bfe8b-ef84-4e47-853e-31313f64a53a" xmlns:ns3="7058508a-d375-4a1e-a567-7dd1bee321db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2dd5f73807ecc01be09f0551dd16e5ff" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100350E8E2BB23E2A4AA4EA2615525F2B5A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4fb86a6bd64274b76f239f5430f3f160">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e4bfe8b-ef84-4e47-853e-31313f64a53a" xmlns:ns3="7058508a-d375-4a1e-a567-7dd1bee321db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5e5356646ac113cdb6f7e4fb15d9e89" ns2:_="" ns3:_="">
     <xsd:import namespace="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
     <xsd:import namespace="7058508a-d375-4a1e-a567-7dd1bee321db"/>
     <xsd:element name="properties">
@@ -3873,6 +3845,11 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3908,6 +3885,31 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4040,14 +4042,74 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7058508a-d375-4a1e-a567-7dd1bee321db">
+      <UserInfo>
+        <DisplayName>Blagan, Kelly (WMBC Assets)</DisplayName>
+        <AccountId>218</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mayat, Muhammad (FIS Individuals and Businesses)</DisplayName>
+        <AccountId>4372</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1F2003-62A8-4542-969F-A4360CDACCDD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7338BD98-66B0-4D4B-BDAB-F3DE33204937}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
+    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E528370-52D7-465D-AC3B-2255C11AB771}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E528370-52D7-465D-AC3B-2255C11AB771}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{356B0A03-E7B7-4873-A132-308FAB042839}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1F2003-62A8-4542-969F-A4360CDACCDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
+    <ds:schemaRef ds:uri="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>